--- a/files/report.xlsx
+++ b/files/report.xlsx
@@ -14,17 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19" count="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
   <x:si>
     <x:t>_id</x:t>
   </x:si>
   <x:si>
+    <x:t>date</x:t>
+  </x:si>
+  <x:si>
     <x:t>time</x:t>
   </x:si>
   <x:si>
-    <x:t>date</x:t>
-  </x:si>
-  <x:si>
     <x:t>mandal</x:t>
   </x:si>
   <x:si>
@@ -43,34 +43,19 @@
     <x:t>__v</x:t>
   </x:si>
   <x:si>
-    <x:t>5da1e81322614f2818cc5900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sat Oct 12 2019 20:19:55 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sat Oct 12 2019 20:19:55 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"dist":"Krishna","mandal":"vij","mroName":"Chiruhas","mroPhone":"7386732234","hasWhatsApp":"false","hasTelegram":"true"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5da1f4b7c44fb919c0c25b71</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sat Oct 12 2019 20:19:55 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5da1f527c44fb919c0c25b72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sat Oct 12 2019 20:19:55 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5da1f529c44fb919c0c25b73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sat Oct 12 2019 20:19:55 GMT+0530 (India Standard Time)</x:t>
+    <x:t>5dd69de6fa189d2ae048845c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thu Nov 21 2019 00:00:00 GMT+0530 (India Standard Time)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:45:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"_id":"5dab54277715631de4b15d13","dist":"Srikakulam","mandal":"Veeraghattam","mroPhone":"7995995849","hasTelegram":true,"hasWhatsApp":false,"mroName":"#N/a","__v":0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:53</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -479,102 +464,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G2" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:9">
-      <x:c r="A3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:9">
-      <x:c r="A4" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:9">
-      <x:c r="A5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>

--- a/files/report.xlsx
+++ b/files/report.xlsx
@@ -1,131 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet 1" sheetId="2" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
-  <x:si>
-    <x:t>_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mandal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>messaged</x:t>
-  </x:si>
-  <x:si>
-    <x:t>messagedTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>called</x:t>
-  </x:si>
-  <x:si>
-    <x:t>calledTime</x:t>
-  </x:si>
-  <x:si>
-    <x:t>__v</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5dd69de6fa189d2ae048845c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thu Nov 21 2019 00:00:00 GMT+0530 (India Standard Time)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19:45:09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"_id":"5dab54277715631de4b15d13","dist":"Srikakulam","mandal":"Veeraghattam","mroPhone":"7995995849","hasTelegram":true,"hasWhatsApp":false,"mroName":"#N/a","__v":0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19:53</x:t>
-  </x:si>
-</x:sst>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
+  <sheets>
+    <sheet name="reports" sheetId="1" r:id="rId1"/>
+  </sheets>
+</workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="000000"/>
+    </font>
+  </fonts>
+  <fills count="4">
+    <fill>
+      <patternFill patternType="none">
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  </cellXfs>
+  <cellStyles>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+</styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -200,6 +164,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -234,6 +199,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,20 +234,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -403,84 +365,285 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:ss="urn:schemas-microsoft-com:office:spreadsheet" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:9">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G1" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:9">
-      <x:c r="A2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="b">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="34.28125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="str">
+        <v>Alert ID</v>
+      </c>
+      <c r="B1" s="4" t="str">
+        <v>Date</v>
+      </c>
+      <c r="C1" s="4" t="str">
+        <v>Description</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <v>District</v>
+      </c>
+      <c r="E1" s="4" t="str">
+        <v>Mandal</v>
+      </c>
+      <c r="F1" s="4" t="str">
+        <v>MRO Phone</v>
+      </c>
+      <c r="G1" s="4" t="str">
+        <v>MRO Name</v>
+      </c>
+      <c r="H1" s="4" t="str">
+        <v>D.Sec Name</v>
+      </c>
+      <c r="I1" s="4" t="str">
+        <v>D.Sec Phone</v>
+      </c>
+      <c r="J1" s="4" t="str">
+        <v>DRO Name</v>
+      </c>
+      <c r="K1" s="4" t="str">
+        <v>DRO Phone Number</v>
+      </c>
+      <c r="L1" s="4" t="str">
+        <v>MRO TelePhase</v>
+      </c>
+      <c r="M1" s="4" t="str">
+        <v>DRO TelePhase</v>
+      </c>
+      <c r="N1" s="4" t="str">
+        <v>D.Sec TelePhase</v>
+      </c>
+      <c r="O1" s="4" t="str">
+        <v>TelePhase Comments</v>
+      </c>
+      <c r="P1" s="4" t="str">
+        <v>MRO MessagePhase</v>
+      </c>
+      <c r="Q1" s="4" t="str">
+        <v>D.Sec MessagePhase</v>
+      </c>
+      <c r="R1" s="4" t="str">
+        <v>RDO MessagePhase</v>
+      </c>
+      <c r="S1" s="4" t="str">
+        <v>Alerts MessagePhase</v>
+      </c>
+      <c r="T1" s="4" t="str">
+        <v>DRO MessagePhase</v>
+      </c>
+      <c r="U1" s="4" t="str">
+        <v>Mro Telegram</v>
+      </c>
+      <c r="V1" s="4" t="str">
+        <v>MessagePhase Comments</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="str">
+        <v>5de8c73a68e6df30f004c0b8</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <v>5-12-2019</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <v>14:30:42</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <v>Srikakulam</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <v>Palakonda</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <v>7995995848</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <v>test</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <v>test</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <v>verified</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <v>yes</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R2" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S2" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T2" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U2" s="2" t="str">
+        <v>verified</v>
+      </c>
+      <c r="V2" s="2" t="str">
+        <v>done</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>5de8c77e68e6df30f004c0bb</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>5-12-2019</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <v>14:31:50</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <v>Srikakulam</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <v>Veeraghattam</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <v>7995995849</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <v>test</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <v>test</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <v>verified</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <v>mrocalled</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S3" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T3" s="2" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U3" s="2" t="str">
+        <v>verified</v>
+      </c>
+      <c r="V3" s="2" t="str">
+        <v>hello</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/files/report.xlsx
+++ b/files/report.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -21,17 +21,12 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="18"/>
-      <name val="Calibri"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <color rgb="000000"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none">
         <bgColor/>
@@ -39,18 +34,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125">
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCFF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCFF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -74,12 +57,13 @@
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="1" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -422,228 +406,188 @@
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="str">
-        <v>Alert ID</v>
-      </c>
-      <c r="B1" s="4" t="str">
-        <v>Date</v>
-      </c>
-      <c r="C1" s="4" t="str">
-        <v>Description</v>
-      </c>
-      <c r="D1" s="4" t="str">
-        <v>District</v>
-      </c>
-      <c r="E1" s="4" t="str">
-        <v>Mandal</v>
-      </c>
-      <c r="F1" s="4" t="str">
-        <v>MRO Phone</v>
-      </c>
-      <c r="G1" s="4" t="str">
-        <v>MRO Name</v>
-      </c>
-      <c r="H1" s="4" t="str">
-        <v>D.Sec Name</v>
-      </c>
-      <c r="I1" s="4" t="str">
-        <v>D.Sec Phone</v>
-      </c>
-      <c r="J1" s="4" t="str">
-        <v>DRO Name</v>
-      </c>
-      <c r="K1" s="4" t="str">
-        <v>DRO Phone Number</v>
-      </c>
-      <c r="L1" s="4" t="str">
-        <v>MRO TelePhase</v>
-      </c>
-      <c r="M1" s="4" t="str">
-        <v>DRO TelePhase</v>
-      </c>
-      <c r="N1" s="4" t="str">
-        <v>D.Sec TelePhase</v>
-      </c>
-      <c r="O1" s="4" t="str">
-        <v>TelePhase Comments</v>
-      </c>
-      <c r="P1" s="4" t="str">
-        <v>MRO MessagePhase</v>
-      </c>
-      <c r="Q1" s="4" t="str">
-        <v>D.Sec MessagePhase</v>
-      </c>
-      <c r="R1" s="4" t="str">
-        <v>RDO MessagePhase</v>
-      </c>
-      <c r="S1" s="4" t="str">
-        <v>Alerts MessagePhase</v>
-      </c>
-      <c r="T1" s="4" t="str">
-        <v>DRO MessagePhase</v>
-      </c>
-      <c r="U1" s="4" t="str">
-        <v>Mro Telegram</v>
-      </c>
-      <c r="V1" s="4" t="str">
-        <v>MessagePhase Comments</v>
+        <v>SEOC-Lightning Tele-Communication Details</v>
+      </c>
+      <c r="B1" s="2" t="str">
+        <v>[object Object]</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>5de8c73a68e6df30f004c0b8</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>5-12-2019</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <v>14:30:42</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <v>Srikakulam</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <v>Palakonda</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <v>7995995848</v>
+      <c r="A2" s="3" t="str">
+        <v>Alert Id</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <v>Date</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <v>Time</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <v>District</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <v>Mandal</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <v>Tele Calls</v>
       </c>
       <c r="G2" s="2" t="str">
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="H2" s="2" t="str">
-        <v>test</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="str">
-        <v>test</v>
+        <v/>
+      </c>
+      <c r="I2" s="3" t="str">
+        <v>Call Comments</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <v>WhatsApp</v>
       </c>
       <c r="K2" s="2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L2" s="2" t="str">
-        <v>verified</v>
+        <v/>
       </c>
       <c r="M2" s="2" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="N2" s="2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O2" s="2" t="str">
-        <v>yes</v>
-      </c>
-      <c r="P2" s="2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q2" s="2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R2" s="2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S2" s="2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T2" s="2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U2" s="2" t="str">
-        <v>verified</v>
-      </c>
-      <c r="V2" s="2" t="str">
-        <v>done</v>
+        <v/>
+      </c>
+      <c r="O2" s="3" t="str">
+        <v xml:space="preserve">Telegram </v>
+      </c>
+      <c r="P2" s="3" t="str">
+        <v>Message Comments</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>5de8c77e68e6df30f004c0bb</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <v>5-12-2019</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <v>14:31:50</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <v>Srikakulam</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <v>Veeraghattam</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <v>7995995849</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <v>#N/A</v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <v>test</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="str">
-        <v>test</v>
-      </c>
-      <c r="K3" s="2" t="str">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="str">
+      <c r="A3" s="3" t="str">
+        <v>Alert Id</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <v>Date</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <v>Time</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <v>District</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <v>Mandal</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <v>MRO</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <v>DRO</v>
+      </c>
+      <c r="H3" s="3" t="str">
+        <v>D.Sec</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <v>Call Comments</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <v>MRO</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <v>DRO</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <v>D.Sec</v>
+      </c>
+      <c r="M3" s="3" t="str">
+        <v>RDO</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <v>Alerts</v>
+      </c>
+      <c r="O3" s="3" t="str">
+        <v>Mro</v>
+      </c>
+      <c r="P3" s="3" t="str">
+        <v>Message Comments</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>5deca490e9c5df0ac0df9748</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <v>8-12-2019</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <v>12:51:51</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <v>Krishna</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <v>Vijayawada Rural</v>
+      </c>
+      <c r="F4" s="2" t="str">
         <v>verified</v>
       </c>
-      <c r="M3" s="2" t="str">
+      <c r="G4" s="2" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="N3" s="2" t="str">
+      <c r="H4" s="2" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O3" s="2" t="str">
-        <v>mrocalled</v>
-      </c>
-      <c r="P3" s="2" t="str">
+      <c r="I4" s="2" t="str">
+        <v>called</v>
+      </c>
+      <c r="J4" s="2" t="str">
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q3" s="2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R3" s="2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S3" s="2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T3" s="2" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U3" s="2" t="str">
+      <c r="K4" s="2" t="str">
         <v>verified</v>
       </c>
-      <c r="V3" s="2" t="str">
-        <v>hello</v>
+      <c r="L4" s="2" t="str">
+        <v>verified</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <v>verified</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <v>verified</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <v>verified</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <v>done</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="P2:P3"/>
+  </mergeCells>
 </worksheet>
 </file>